--- a/Сводный отчет по заправкам.xlsx
+++ b/Сводный отчет по заправкам.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,485 +468,485 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Трактор Т150 6623 ОО 35</t>
+          <t>ПОГРУЗЧИК DOOSAN 7595 ВТ 35</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.38</v>
+        <v>163.53</v>
       </c>
       <c r="C2" t="n">
-        <v>289.95</v>
+        <v>291.94</v>
       </c>
       <c r="D2" t="n">
-        <v>134.57</v>
+        <v>128.4</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>900.27</v>
       </c>
       <c r="F2" t="n">
-        <v>643.12</v>
+        <v>601.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Грейдер 7268ОО35</t>
+          <t>КАМАЗ 55111 А 322 ТВ 35</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.35</v>
+        <v>96.33</v>
       </c>
       <c r="C3" t="n">
-        <v>228.38</v>
+        <v>230</v>
       </c>
       <c r="D3" t="n">
-        <v>272.37</v>
+        <v>133.67</v>
       </c>
       <c r="E3" t="n">
-        <v>800</v>
+        <v>470.77</v>
       </c>
       <c r="F3" t="n">
-        <v>193.72</v>
+        <v>252.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>КАМАЗ В459УТ35</t>
+          <t>Трактор МТЗ 6624 ОО 35</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
-        <v>238.2</v>
+        <v>115.38</v>
       </c>
       <c r="D4" t="n">
-        <v>309.93</v>
+        <v>140.44</v>
       </c>
       <c r="E4" t="n">
-        <v>130</v>
+        <v>45.28</v>
       </c>
       <c r="F4" t="n">
-        <v>138.41</v>
+        <v>210.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Трактор ХТЗ-150К-09 ОО 6028</t>
+          <t>Автогрейдер 7824 ВР 35</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.06</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>231.47</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>177.4</v>
+        <v>528.48</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>1578.6</v>
       </c>
       <c r="F5" t="n">
-        <v>125.47</v>
+        <v>198.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Экс. Хитачи 0662ВК35</t>
+          <t>Трактор Т150 6623 ОО 35</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.63</v>
+        <v>155.38</v>
       </c>
       <c r="C6" t="n">
-        <v>281.56</v>
+        <v>305</v>
       </c>
       <c r="D6" t="n">
-        <v>420.19</v>
+        <v>356.95</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F6" t="n">
-        <v>110.09</v>
+        <v>180.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">КДМ HOWO К 357 УМ 35 </t>
+          <t>ГАЗ-А 21 R 22 К 997 ОН</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143.75</v>
+        <v>46.52</v>
       </c>
       <c r="C7" t="n">
-        <v>540.78</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>841.99</v>
+        <v>368.49</v>
       </c>
       <c r="E7" t="n">
-        <v>1700.1</v>
+        <v>137.48</v>
       </c>
       <c r="F7" t="n">
-        <v>101.91</v>
+        <v>168.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Трактор Т-150 7603ОО</t>
+          <t>Трактор Беларус 1221.2 ВТ 6994</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.11</v>
+        <v>70.58</v>
       </c>
       <c r="C8" t="n">
-        <v>277.06</v>
+        <v>143.47</v>
       </c>
       <c r="D8" t="n">
-        <v>385.97</v>
+        <v>72.89</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>165.51</v>
       </c>
       <c r="F8" t="n">
-        <v>92.98999999999999</v>
+        <v>127.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Автогрейдер  6622 ОО 35</t>
+          <t>КДМ Е901ХЕ35</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.92</v>
+        <v>168.28</v>
       </c>
       <c r="C9" t="n">
-        <v>192.59</v>
+        <v>309.67</v>
       </c>
       <c r="D9" t="n">
-        <v>212.13</v>
+        <v>336.72</v>
       </c>
       <c r="E9" t="n">
-        <v>400</v>
+        <v>730.42</v>
       </c>
       <c r="F9" t="n">
-        <v>88.56</v>
+        <v>116.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>МДК-53229 А 321 ТВ 35</t>
+          <t>Погрузчик ТО-18Б.2 3005 ОО 35</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.92</v>
+        <v>92.08</v>
       </c>
       <c r="C10" t="n">
-        <v>240.98</v>
+        <v>203.66</v>
       </c>
       <c r="D10" t="n">
-        <v>213.06</v>
+        <v>204</v>
       </c>
       <c r="E10" t="n">
-        <v>400.79</v>
+        <v>400</v>
       </c>
       <c r="F10" t="n">
-        <v>88.11</v>
+        <v>96.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Экскаватор HYUNDAI 3929 ВТ 35</t>
+          <t>Автогрейдер  6622 ОО 35</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.13</v>
+        <v>28.92</v>
       </c>
       <c r="C11" t="n">
-        <v>243.74</v>
+        <v>192.59</v>
       </c>
       <c r="D11" t="n">
-        <v>281.19</v>
+        <v>212.13</v>
       </c>
       <c r="E11" t="n">
-        <v>435.09</v>
+        <v>400</v>
       </c>
       <c r="F11" t="n">
-        <v>54.73</v>
+        <v>88.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>КАМАЗ У 785 КМ 35</t>
+          <t>Грейдер 7268ОО35</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225.29</v>
+        <v>30.35</v>
       </c>
       <c r="C12" t="n">
-        <v>320.3</v>
+        <v>209.27</v>
       </c>
       <c r="D12" t="n">
-        <v>504.71</v>
+        <v>461.3</v>
       </c>
       <c r="E12" t="n">
-        <v>760.3399999999999</v>
+        <v>800</v>
       </c>
       <c r="F12" t="n">
-        <v>50.65</v>
+        <v>73.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Автогрейдер ГС-14.02 ВК 6346 35</t>
+          <t>КДМ ЭД 405В1  Е 139 СУ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.55</v>
+        <v>140.21</v>
       </c>
       <c r="C13" t="n">
-        <v>295.15</v>
+        <v>330</v>
       </c>
       <c r="D13" t="n">
-        <v>594.96</v>
+        <v>382.64</v>
       </c>
       <c r="E13" t="n">
-        <v>400</v>
+        <v>632.14</v>
       </c>
       <c r="F13" t="n">
-        <v>48.74</v>
+        <v>65.20999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ГАЗ-А 21 R 22 К 997 ОН</t>
+          <t>Экс. Хитачи 0662ВК35</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.52</v>
+        <v>78.63</v>
       </c>
       <c r="C14" t="n">
-        <v>80.41</v>
+        <v>279.83</v>
       </c>
       <c r="D14" t="n">
-        <v>202.24</v>
+        <v>630.87</v>
       </c>
       <c r="E14" t="n">
-        <v>137.48</v>
+        <v>400</v>
       </c>
       <c r="F14" t="n">
-        <v>47.1</v>
+        <v>57.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Грейдер 7263ОО35</t>
+          <t>КАМАЗ У 785 КМ 35</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140.22</v>
+        <v>225.29</v>
       </c>
       <c r="C15" t="n">
-        <v>213.61</v>
+        <v>320.3</v>
       </c>
       <c r="D15" t="n">
-        <v>188.04</v>
+        <v>504.71</v>
       </c>
       <c r="E15" t="n">
-        <v>129.94</v>
+        <v>760.3399999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>44.72</v>
+        <v>50.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ГАЗ-А22R33-55 М 591 АВ 35 </t>
+          <t xml:space="preserve">Экскаватор JOHN DEERE 7060 </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.99</v>
+        <v>142.11</v>
       </c>
       <c r="C16" t="n">
-        <v>90</v>
+        <v>192.16</v>
       </c>
       <c r="D16" t="n">
-        <v>159.09</v>
+        <v>1513.88</v>
       </c>
       <c r="E16" t="n">
-        <v>212.76</v>
+        <v>2190</v>
       </c>
       <c r="F16" t="n">
-        <v>33.74</v>
+        <v>44.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>МТЗ 7551ВК35</t>
+          <t>МДК-53229 А 321 ТВ 35</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.15</v>
+        <v>27.92</v>
       </c>
       <c r="C17" t="n">
-        <v>145</v>
+        <v>260.9</v>
       </c>
       <c r="D17" t="n">
-        <v>260.37</v>
+        <v>416.46</v>
       </c>
       <c r="E17" t="n">
-        <v>202.44</v>
+        <v>601.02</v>
       </c>
       <c r="F17" t="n">
-        <v>28.62</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Автогрейдер SANY ВК 8795</t>
+          <t>Грейдер 7263ОО35</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>121.45</v>
+        <v>140.22</v>
       </c>
       <c r="C18" t="n">
-        <v>270.29</v>
+        <v>211.49</v>
       </c>
       <c r="D18" t="n">
-        <v>704.36</v>
+        <v>500.37</v>
       </c>
       <c r="E18" t="n">
-        <v>548.1700000000001</v>
+        <v>658.4200000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>28.49</v>
+        <v>31.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Экскаватор JOHN DEERE 7060 </t>
+          <t>ЭКСКАВАТОР SANY SY155W</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.11</v>
+        <v>63.88</v>
       </c>
       <c r="C19" t="n">
-        <v>192.16</v>
+        <v>260</v>
       </c>
       <c r="D19" t="n">
-        <v>1513.88</v>
+        <v>477.11</v>
       </c>
       <c r="E19" t="n">
-        <v>1860</v>
+        <v>620.77</v>
       </c>
       <c r="F19" t="n">
-        <v>22.86</v>
+        <v>30.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Грейдер SANY 7619 ВК</t>
+          <t>Трактор Беларус 1221.3 ВК 1822</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.32</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>320</v>
+        <v>102.9</v>
       </c>
       <c r="D20" t="n">
-        <v>1218.26</v>
+        <v>276.17</v>
       </c>
       <c r="E20" t="n">
-        <v>1030.45</v>
+        <v>350.96</v>
       </c>
       <c r="F20" t="n">
-        <v>18.23</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ГАЗ А 32R32 NEXT М 077 ВВ</t>
+          <t>КДМ ЭД 405В1 Е 113 КР</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46.52</v>
+        <v>153.15</v>
       </c>
       <c r="C21" t="n">
-        <v>80.41</v>
+        <v>323.75</v>
       </c>
       <c r="D21" t="n">
-        <v>202.24</v>
+        <v>507.5</v>
       </c>
       <c r="E21" t="n">
-        <v>173.03</v>
+        <v>640.17</v>
       </c>
       <c r="F21" t="n">
-        <v>16.88</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Автогрейдер 3004 ОО 35</t>
+          <t>Автогрейдер ГС-14.02 ВК 6346 35</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.31</v>
+        <v>171.55</v>
       </c>
       <c r="C22" t="n">
-        <v>179.96</v>
+        <v>260.93</v>
       </c>
       <c r="D22" t="n">
-        <v>930.84</v>
+        <v>912.08</v>
       </c>
       <c r="E22" t="n">
-        <v>1065.51</v>
+        <v>1150</v>
       </c>
       <c r="F22" t="n">
-        <v>14.47</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Экскаватор JOHN DEERE 7037 ВТ 35</t>
+          <t>Газ- 27527 А 693 НН 35</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.67</v>
+        <v>21.7</v>
       </c>
       <c r="C23" t="n">
-        <v>341.99</v>
+        <v>60.02</v>
       </c>
       <c r="D23" t="n">
-        <v>1110.49</v>
+        <v>248.71</v>
       </c>
       <c r="E23" t="n">
-        <v>1000.04</v>
+        <v>207.3</v>
       </c>
       <c r="F23" t="n">
-        <v>11.04</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="24">
@@ -959,632 +959,874 @@
         <v>42.2</v>
       </c>
       <c r="C24" t="n">
-        <v>223</v>
+        <v>218.89</v>
       </c>
       <c r="D24" t="n">
-        <v>180.8</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
+        <v>640</v>
       </c>
       <c r="F24" t="n">
-        <v>10.62</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ХТЗ-150 7261ОО35</t>
+          <t>КДМ Е391ХС35</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.93</v>
+        <v>201.02</v>
       </c>
       <c r="C25" t="n">
-        <v>317.1</v>
+        <v>312.66</v>
       </c>
       <c r="D25" t="n">
-        <v>271.17</v>
+        <v>715.1</v>
       </c>
       <c r="E25" t="n">
-        <v>248.02</v>
+        <v>610.47</v>
       </c>
       <c r="F25" t="n">
-        <v>9.33</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ПОГРУЗЧИК DOOSAN 7595 ВТ 35</t>
+          <t>Грейдер SANY 7619 ВК</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.56</v>
+        <v>147.32</v>
       </c>
       <c r="C26" t="n">
-        <v>280.86</v>
+        <v>317.92</v>
       </c>
       <c r="D26" t="n">
-        <v>304.43</v>
+        <v>2069.9</v>
       </c>
       <c r="E26" t="n">
-        <v>332.57</v>
+        <v>1862.71</v>
       </c>
       <c r="F26" t="n">
-        <v>9.24</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>КАМАЗ А213ТА35</t>
+          <t>Трактор Т-150К-09 ОО 1899</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.37</v>
+        <v>83.08</v>
       </c>
       <c r="C27" t="n">
-        <v>73.38</v>
+        <v>293.3</v>
       </c>
       <c r="D27" t="n">
-        <v>239.78</v>
+        <v>441.08</v>
       </c>
       <c r="E27" t="n">
-        <v>260.88</v>
+        <v>400</v>
       </c>
       <c r="F27" t="n">
-        <v>8.800000000000001</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Трактор Беларус 1221.3 ВК 1822</t>
+          <t>ХТЗ-150 7261ОО35</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.34999999999999</v>
+        <v>45.93</v>
       </c>
       <c r="C28" t="n">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="D28" t="n">
-        <v>137.7</v>
+        <v>469.49</v>
       </c>
       <c r="E28" t="n">
-        <v>147.07</v>
+        <v>426.13</v>
       </c>
       <c r="F28" t="n">
-        <v>6.8</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Трактор МТЗ 6624 ОО 35</t>
+          <t>Экскаватор JOHN DEERE 7037 ВТ 35</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72</v>
+        <v>222.67</v>
       </c>
       <c r="C29" t="n">
-        <v>114.48</v>
+        <v>388.39</v>
       </c>
       <c r="D29" t="n">
-        <v>42.47</v>
+        <v>1313.47</v>
       </c>
       <c r="E29" t="n">
-        <v>45.28</v>
+        <v>1200.05</v>
       </c>
       <c r="F29" t="n">
-        <v>6.61</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>погрузчик Lugong ОО 6016</t>
+          <t>Бульдозер ЧЕТРА-11М 6186 ВК 35</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.61</v>
+        <v>23.39</v>
       </c>
       <c r="C30" t="n">
-        <v>50.13</v>
+        <v>170.98</v>
       </c>
       <c r="D30" t="n">
-        <v>181.31</v>
+        <v>779.27</v>
       </c>
       <c r="E30" t="n">
-        <v>170.27</v>
+        <v>850.01</v>
       </c>
       <c r="F30" t="n">
-        <v>6.49</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>КДМ ЭД 405В1 Е 113 КР</t>
+          <t>КАМАЗ А213ТА35</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.15</v>
+        <v>98.37</v>
       </c>
       <c r="C31" t="n">
-        <v>266.16</v>
+        <v>260.73</v>
       </c>
       <c r="D31" t="n">
-        <v>266.23</v>
+        <v>430.42</v>
       </c>
       <c r="E31" t="n">
-        <v>250.01</v>
+        <v>469.52</v>
       </c>
       <c r="F31" t="n">
-        <v>6.49</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>КДМ Е391ХС35</t>
+          <t>Автогрейдер 6621 ОО 35</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>201.02</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
-        <v>296.42</v>
+        <v>210.49</v>
       </c>
       <c r="D32" t="n">
-        <v>95.40000000000001</v>
+        <v>215.97</v>
       </c>
       <c r="E32" t="n">
-        <v>101.54</v>
+        <v>198.18</v>
       </c>
       <c r="F32" t="n">
-        <v>6.43</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Бульдозер ЧЕТРА-11М 6186 ВК 35</t>
+          <t>МТЗ 7551ВК35</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.39</v>
+        <v>57.15</v>
       </c>
       <c r="C33" t="n">
-        <v>57.16</v>
+        <v>100.46</v>
       </c>
       <c r="D33" t="n">
-        <v>518.6</v>
+        <v>505.93</v>
       </c>
       <c r="E33" t="n">
-        <v>550</v>
+        <v>550.59</v>
       </c>
       <c r="F33" t="n">
-        <v>6.06</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SITRAK  C7H К 378 УМ 35</t>
+          <t xml:space="preserve">ГАЗ-А22R33-55 М 591 АВ 35 </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>368.37</v>
+        <v>49.99</v>
       </c>
       <c r="C34" t="n">
-        <v>611.12</v>
+        <v>74.61</v>
       </c>
       <c r="D34" t="n">
-        <v>242.81</v>
+        <v>270.15</v>
       </c>
       <c r="E34" t="n">
-        <v>250</v>
+        <v>293.59</v>
       </c>
       <c r="F34" t="n">
-        <v>2.96</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>КДМ ЭД 405 ПС  В 098 МН 35</t>
+          <t>Трактор ХТЗ-150К-09 ОО 6028</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79.25</v>
+        <v>54.06</v>
       </c>
       <c r="C35" t="n">
-        <v>156.45</v>
+        <v>273.59</v>
       </c>
       <c r="D35" t="n">
-        <v>220.69</v>
+        <v>736.65</v>
       </c>
       <c r="E35" t="n">
-        <v>215.03</v>
+        <v>800</v>
       </c>
       <c r="F35" t="n">
-        <v>2.63</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ОрТз-150 7260ОО35</t>
+          <t>Автогрейдер 3004 ОО 35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>72.26000000000001</v>
+        <v>113.31</v>
       </c>
       <c r="C36" t="n">
-        <v>277.3</v>
+        <v>197.61</v>
       </c>
       <c r="D36" t="n">
-        <v>205.04</v>
+        <v>1390.74</v>
       </c>
       <c r="E36" t="n">
-        <v>200</v>
+        <v>1495.53</v>
       </c>
       <c r="F36" t="n">
-        <v>2.52</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Грейдер 9883ВТ35</t>
+          <t>Трактор Беларус 82.1  3008 ОО 35</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.7</v>
+        <v>43.65</v>
       </c>
       <c r="C37" t="n">
-        <v>290.62</v>
+        <v>118.1</v>
       </c>
       <c r="D37" t="n">
-        <v>585.53</v>
+        <v>134.84</v>
       </c>
       <c r="E37" t="n">
-        <v>600</v>
+        <v>125.53</v>
       </c>
       <c r="F37" t="n">
-        <v>2.47</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ЭД405А КамАЗ-55111С У 784 КМ</t>
+          <t>погрузчик Lugong ОО 6016</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.59</v>
+        <v>23.61</v>
       </c>
       <c r="C38" t="n">
-        <v>289.45</v>
+        <v>50.13</v>
       </c>
       <c r="D38" t="n">
-        <v>374.5</v>
+        <v>181.31</v>
       </c>
       <c r="E38" t="n">
-        <v>366.13</v>
+        <v>170.27</v>
       </c>
       <c r="F38" t="n">
-        <v>2.29</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>КДМ ЭД 405 ПС В 099 МН 35</t>
+          <t>МТЗ 6642ОО35</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.29</v>
+        <v>47.73</v>
       </c>
       <c r="C39" t="n">
-        <v>157.73</v>
+        <v>80.56</v>
       </c>
       <c r="D39" t="n">
-        <v>203.49</v>
+        <v>32.82</v>
       </c>
       <c r="E39" t="n">
-        <v>199.26</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Автогрейдер ГС14.02 ВК6312</t>
+          <t>Грейдер 9883ВТ35</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.17</v>
+        <v>150.7</v>
       </c>
       <c r="C40" t="n">
-        <v>301.27</v>
+        <v>322.18</v>
       </c>
       <c r="D40" t="n">
-        <v>589.01</v>
+        <v>956.3200000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>599.0599999999999</v>
+        <v>1000</v>
       </c>
       <c r="F40" t="n">
-        <v>1.71</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Газ- 27527 А 693 НН 35</t>
+          <t>Экскаватор HYUNDAI 3929 ВТ 35</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.7</v>
+        <v>132.13</v>
       </c>
       <c r="C41" t="n">
-        <v>59.33</v>
+        <v>255</v>
       </c>
       <c r="D41" t="n">
-        <v>119.12</v>
+        <v>799.84</v>
       </c>
       <c r="E41" t="n">
-        <v>121.07</v>
+        <v>835.11</v>
       </c>
       <c r="F41" t="n">
-        <v>1.63</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ЭКСКАВАТОР SANY SY155W</t>
+          <t>ЭД405А КамАЗ-55111С У 784 КМ</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63.88</v>
+        <v>160.59</v>
       </c>
       <c r="C42" t="n">
-        <v>260</v>
+        <v>296.96</v>
       </c>
       <c r="D42" t="n">
-        <v>477.11</v>
+        <v>746.22</v>
       </c>
       <c r="E42" t="n">
-        <v>469.77</v>
+        <v>716.55</v>
       </c>
       <c r="F42" t="n">
-        <v>1.56</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Автогрейдер 6185 ВК 35</t>
+          <t xml:space="preserve"> SITRAK  C7H К 378 УМ 35</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.82</v>
+        <v>368.37</v>
       </c>
       <c r="C43" t="n">
-        <v>293.53</v>
+        <v>611.12</v>
       </c>
       <c r="D43" t="n">
-        <v>769.23</v>
+        <v>242.75</v>
       </c>
       <c r="E43" t="n">
-        <v>780</v>
+        <v>250</v>
       </c>
       <c r="F43" t="n">
-        <v>1.4</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Трактор ХТЗ-150К 3009 ОО 35</t>
+          <t>Автогрейдер 3013 ОО 35</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.37</v>
+        <v>102.63</v>
       </c>
       <c r="C44" t="n">
-        <v>307.5</v>
+        <v>191.67</v>
       </c>
       <c r="D44" t="n">
-        <v>681.59</v>
+        <v>618.1</v>
       </c>
       <c r="E44" t="n">
-        <v>690.5</v>
+        <v>600.95</v>
       </c>
       <c r="F44" t="n">
-        <v>1.31</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Грузовой самосвал  HOWO М 081 АВ</t>
+          <t>Трактор Т-150 7603ОО</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>263.4</v>
+        <v>65.11</v>
       </c>
       <c r="C45" t="n">
-        <v>583.03</v>
+        <v>236.47</v>
       </c>
       <c r="D45" t="n">
-        <v>575.15</v>
+        <v>587.34</v>
       </c>
       <c r="E45" t="n">
-        <v>568.23</v>
+        <v>600</v>
       </c>
       <c r="F45" t="n">
-        <v>1.22</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Автогрейдер 3013 ОО 35</t>
+          <t>КАМАЗ В459УТ35</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.63</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>223.63</v>
+        <v>225.57</v>
       </c>
       <c r="D46" t="n">
-        <v>506.95</v>
+        <v>791.4</v>
       </c>
       <c r="E46" t="n">
-        <v>500.94</v>
+        <v>774.64</v>
       </c>
       <c r="F46" t="n">
-        <v>1.2</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>КАМАЗ-689985 Е 302 ТМ 35</t>
+          <t>ГАЗ А 32R32 NEXT М 077 ВВ</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>58.14</v>
+        <v>46.52</v>
       </c>
       <c r="C47" t="n">
-        <v>290.01</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>530.9</v>
+        <v>368.49</v>
       </c>
       <c r="E47" t="n">
-        <v>525.4400000000001</v>
+        <v>361.04</v>
       </c>
       <c r="F47" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ЭКСКАВАТОР HYUNDAI  6184 ВК 35</t>
+          <t>Автогрейдер SANY ВК 8795</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>146.8</v>
+        <v>121.45</v>
       </c>
       <c r="C48" t="n">
-        <v>255.63</v>
+        <v>283.82</v>
       </c>
       <c r="D48" t="n">
-        <v>432.52</v>
+        <v>972.75</v>
       </c>
       <c r="E48" t="n">
-        <v>436.5700000000001</v>
+        <v>955.3000000000002</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">КАМАЗ 65115 У 952 ВК 35 </t>
+          <t>КАМАЗ-689985 Е 302 ТМ 35</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.45</v>
+        <v>58.14</v>
       </c>
       <c r="C49" t="n">
-        <v>232.19</v>
+        <v>295.77</v>
       </c>
       <c r="D49" t="n">
-        <v>361.66</v>
+        <v>1214.94</v>
       </c>
       <c r="E49" t="n">
-        <v>364.32</v>
+        <v>1193.93</v>
       </c>
       <c r="F49" t="n">
-        <v>0.74</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Автогрейдер ГС-14.02 ОО 5640</t>
+          <t>КДМ ЭД 405 ПС В 099 МН 35</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>90.5</v>
+        <v>54.29</v>
       </c>
       <c r="C50" t="n">
-        <v>305.91</v>
+        <v>153.65</v>
       </c>
       <c r="D50" t="n">
-        <v>215.41</v>
+        <v>506.27</v>
       </c>
       <c r="E50" t="n">
-        <v>214.08</v>
+        <v>497.78</v>
       </c>
       <c r="F50" t="n">
-        <v>0.62</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> КДМ ЭД 405 Б  Е 283 СК 35</t>
+          <t>Автогрейдер ГС14.02 ВК6312</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>176.91</v>
+        <v>71.17</v>
       </c>
       <c r="C51" t="n">
-        <v>320.21</v>
+        <v>305.79</v>
       </c>
       <c r="D51" t="n">
-        <v>835.89</v>
+        <v>706.76</v>
       </c>
       <c r="E51" t="n">
-        <v>841.03</v>
+        <v>717.9399999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.62</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Автогрейдер 6185 ВК 35</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>138.82</v>
+      </c>
+      <c r="C52" t="n">
+        <v>293.53</v>
+      </c>
+      <c r="D52" t="n">
+        <v>769.23</v>
+      </c>
+      <c r="E52" t="n">
+        <v>780</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>КДМ ЭД 405 ПС  В 098 МН 35</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>159.77</v>
+      </c>
+      <c r="D53" t="n">
+        <v>597.46</v>
+      </c>
+      <c r="E53" t="n">
+        <v>589.3499999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Трактор ХТЗ-150К 3009 ОО 35</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>210.37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>681.59</v>
+      </c>
+      <c r="E54" t="n">
+        <v>690.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ЭКСКАВАТОР HYUNDAI  6184 ВК 35</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>228.51</v>
+      </c>
+      <c r="D55" t="n">
+        <v>580.04</v>
+      </c>
+      <c r="E55" t="n">
+        <v>586.5700000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ОрТз-150 7260ОО35</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="C56" t="n">
+        <v>311.08</v>
+      </c>
+      <c r="D56" t="n">
+        <v>452.29</v>
+      </c>
+      <c r="E56" t="n">
+        <v>448.13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КАМАЗ 65115 У 952 ВК 35 </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C57" t="n">
+        <v>232.19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>361.66</v>
+      </c>
+      <c r="E57" t="n">
+        <v>364.32</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Автогрейдер ГС-14.02 ОО 5640</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>305.88</v>
+      </c>
+      <c r="D58" t="n">
+        <v>397.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>394.16</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Грузовой самосвал  HOWO М 081 АВ</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>263.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>568.99</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1426.06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1416.37</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Трактор Беларус 82 ВК6343 35</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B60" t="n">
         <v>17.23</v>
       </c>
-      <c r="C52" t="n">
-        <v>101.74</v>
-      </c>
-      <c r="D52" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="E52" t="n">
-        <v>100.03</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.28</v>
+      <c r="C60" t="n">
+        <v>116.24</v>
+      </c>
+      <c r="D60" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>179.57</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Трактор MF 6713 6156 ВК 35</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="C61" t="n">
+        <v>153.96</v>
+      </c>
+      <c r="D61" t="n">
+        <v>100.62</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100.35</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КДМ HOWO К 357 УМ 35 </t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>143.75</v>
+      </c>
+      <c r="C62" t="n">
+        <v>584.54</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2073.58</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2071.67</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> КДМ ЭД 405 Б  Е 283 СК 35</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>176.91</v>
+      </c>
+      <c r="C63" t="n">
+        <v>315.19</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1323.89</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1323.62</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
